--- a/data/processed/documents/APP-000021/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000021/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ahmed Al Hosani</t>
+          <t>Rana Al Jabri</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5000</v>
+        <v>4457.81</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>259554</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>121853</v>
+        <v>63039</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>137701</v>
+        <v>-59837</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>2.13</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,56 +603,26 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Vehicles</t>
+          <t>Liquid Assets</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Economy Car</t>
+          <t>Savings Account</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>37417</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Vehicles</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Premium Car</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>218389</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Liquid Assets</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>Savings Account</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>3748</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="C5" s="10" t="n">
-        <v>259554</v>
+      <c r="C3" s="10" t="n">
+        <v>3202</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,74 +681,53 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Auto Loans</t>
+          <t>Personal Loans</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Vehicle Loan 1</t>
+          <t>Personal Loan</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>22450</v>
+        <v>42190</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>267</v>
+        <v>879</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>Personal Loans</t>
+          <t>Credit Cards</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>Personal Loan</t>
+          <t>Credit Card Balance</t>
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>87147</v>
+        <v>20849</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>2421</v>
+        <v>1042</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Credit Cards</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>Credit Card Balance</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>12256</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>613</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>TOTAL LIABILITIES</t>
         </is>
       </c>
-      <c r="C5" s="12" t="n">
-        <v>121853</v>
+      <c r="C4" s="12" t="n">
+        <v>63039</v>
       </c>
     </row>
   </sheetData>
